--- a/docs/assets/disciplinas/LOM3048.xlsx
+++ b/docs/assets/disciplinas/LOM3048.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Passar aos alunos os conhecimentos básicos da estrutura de um vidro, a influência da composição nas propriedades e os processos empregados na produção de vidros</t>
+    <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5983729 - Fernando Vernilli Junior</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1.Introdução, Quadro da indústria brasileira de vidros2.Composição dos vidros3.Materiais Primas4.Mecanismo de fusão e formação do vidro5.Viscosidade - Definição, relação com a composição, métodos experimentais de medição, cálculo a partir da composição6.Propriedades óticas 7.Propriedades mecânicas 8.Propriedades químicas 9.Processamento - Vidro plano, vidro oco, vidros especiais, vidro temperado, esmalte10.Aula prática - Fundir um vidro, produzir um vidro colorido e esmaltar um metal</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Introdução, Quadro da indústria brasileira de vidros2. Composição dos vidros3. Materiais Primas4. Mecanismo de fusão e formação do vidro5. Viscosidade – Definição, relação com a composição, métodos experimentais de medição, cálculo a partir da composição6. Propriedades óticas 7. Propriedades mecânicas 8. Propriedades químicas 9. Processamento – Vidro plano, vidro oco, vidros especiais, vidro temperado, esmalte10. Aula prática - Fundir um vidro, produzir um vidro colorido e esmaltar um metal</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Serão realizadas duas provas escritas (P1 e P2), apresentações orais de trabalhos (T) e listas de exercícios (E)</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será calculada utilizando a equação: {[(P1 + P2 + T)/3] x 0,9} + E x 0,1</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova  (PR) abrangendo toda a matéria no semestre, valendo de 0 (zero) a 10 (10). Média Final: (MP + PR)/2. Média Final igual ou superior a 5: aprovado. Média Final inferior a 5: reprovado</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.)Associação Brasileira da Industria de Vidros, www.abividro.br2.)H. Scholze, Glas, Springer-Verlag, 19883.)R. H. Doremus, Glass Science, New York, John Wiley, 19944.)H. G. Pfaender, Schott Guide to Glass, London, Chapman &amp; Hall, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3048.xlsx
+++ b/docs/assets/disciplinas/LOM3048.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Passar aos alunos os conhecimentos básicos da estrutura de um vidro, a influência da composição nas propriedades e os processos empregados na produção de vidros</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1.Introdução, Quadro da indústria brasileira de vidros2.Composição dos vidros3.Materiais Primas4.Mecanismo de fusão e formação do vidro5.Viscosidade - Definição, relação com a composição, métodos experimentais de medição, cálculo a partir da composição6.Propriedades óticas 7.Propriedades mecânicas 8.Propriedades químicas 9.Processamento - Vidro plano, vidro oco, vidros especiais, vidro temperado, esmalte10.Aula prática - Fundir um vidro, produzir um vidro colorido e esmaltar um metal</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução, Quadro da indústria brasileira de vidros2. Composição dos vidros3. Materiais Primas4. Mecanismo de fusão e formação do vidro5. Viscosidade – Definição, relação com a composição, métodos experimentais de medição, cálculo a partir da composição6. Propriedades óticas 7. Propriedades mecânicas 8. Propriedades químicas 9. Processamento – Vidro plano, vidro oco, vidros especiais, vidro temperado, esmalte10. Aula prática - Fundir um vidro, produzir um vidro colorido e esmaltar um metal</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>Serão realizadas duas provas escritas (P1 e P2), apresentações orais de trabalhos (T) e listas de exercícios (E)</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão realizadas duas provas escritas (P1 e P2), apresentações orais de trabalhos (T) e listas de exercícios (E)</t>
+    <t>A nota final será calculada utilizando a equação: {[(P1 + P2 + T)/3] x 0,9} + E x 0,1</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será calculada utilizando a equação: {[(P1 + P2 + T)/3] x 0,9} + E x 0,1</t>
+    <t>Para a recuperação será realizada uma prova  (PR) abrangendo toda a matéria no semestre, valendo de 0 (zero) a 10 (10). Média Final: (MP + PR)/2. Média Final igual ou superior a 5: aprovado. Média Final inferior a 5: reprovado</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova  (PR) abrangendo toda a matéria no semestre, valendo de 0 (zero) a 10 (10). Média Final: (MP + PR)/2. Média Final igual ou superior a 5: aprovado. Média Final inferior a 5: reprovado</t>
+    <t>1.)Associação Brasileira da Industria de Vidros, www.abividro.br2.)H. Scholze, Glas, Springer-Verlag, 19883.)R. H. Doremus, Glass Science, New York, John Wiley, 19944.)H. G. Pfaender, Schott Guide to Glass, London, Chapman &amp; Hall, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
